--- a/四下/影像處理/A6409001_邱郁涵_影像處理作業.xlsx
+++ b/四下/影像處理/A6409001_邱郁涵_影像處理作業.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2D250-79C2-4C34-90ED-72CB3E76BCE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,10 +27,6 @@
   </si>
   <si>
     <t>姓名：邱郁涵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,11 +385,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>檔案：https://reurl.cc/j7RX8n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,6 +474,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,11 +485,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -516,7 +517,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -549,7 +550,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -591,7 +598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -633,7 +646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -675,7 +694,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -717,7 +742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="圓角矩形 6"/>
+        <xdr:cNvPr id="7" name="圓角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -808,7 +839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="圓角矩形 7"/>
+        <xdr:cNvPr id="8" name="圓角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -899,7 +936,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="圓角矩形 8"/>
+        <xdr:cNvPr id="9" name="圓角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -990,7 +1033,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="圓角矩形 9"/>
+        <xdr:cNvPr id="10" name="圓角矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1081,7 +1130,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="圖片 11"/>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1119,7 +1174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="圖片 12"/>
+        <xdr:cNvPr id="13" name="圖片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1413,173 +1474,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1590,7 +1651,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1601,7 +1662,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1612,7 +1673,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1623,7 +1684,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1634,7 +1695,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1645,7 +1706,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1656,7 +1717,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1667,7 +1728,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1678,7 +1739,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1689,7 +1750,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1700,7 +1761,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1711,7 +1772,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1722,7 +1783,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1733,7 +1794,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1744,7 +1805,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1755,7 +1816,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1766,7 +1827,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1777,7 +1838,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1788,7 +1849,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1799,58 +1860,58 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1862,7 +1923,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1874,7 +1935,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1886,7 +1947,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1898,7 +1959,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1910,7 +1971,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1922,7 +1983,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1934,7 +1995,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1946,7 +2007,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1958,7 +2019,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1970,7 +2031,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1982,7 +2043,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1994,7 +2055,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2006,7 +2067,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2018,7 +2079,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2030,7 +2091,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2042,7 +2103,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2054,7 +2115,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2066,15 +2127,15 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2085,7 +2146,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2097,7 +2158,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2109,7 +2170,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2121,7 +2182,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2133,7 +2194,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2145,7 +2206,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2157,7 +2218,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2169,7 +2230,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2181,7 +2242,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2193,7 +2254,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2205,7 +2266,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2217,7 +2278,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2227,13 +2288,13 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2244,11 +2305,11 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2258,10 +2319,10 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2272,10 +2333,10 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2286,10 +2347,10 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2300,10 +2361,10 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2314,10 +2375,10 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2328,7 +2389,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2340,10 +2401,10 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2354,11 +2415,11 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2368,7 +2429,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2380,7 +2441,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2392,7 +2453,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2404,7 +2465,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2416,7 +2477,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2428,7 +2489,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2440,7 +2501,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2452,7 +2513,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2464,7 +2525,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2476,7 +2537,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2488,7 +2549,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2500,7 +2561,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2512,7 +2573,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2524,7 +2585,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2536,7 +2597,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2548,7 +2609,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2560,7 +2621,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2572,7 +2633,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2584,7 +2645,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2596,7 +2657,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2608,7 +2669,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2620,7 +2681,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2632,7 +2693,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2644,7 +2705,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2656,7 +2717,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2668,7 +2729,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2680,7 +2741,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2692,7 +2753,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2704,7 +2765,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2716,7 +2777,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2728,7 +2789,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2740,7 +2801,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2752,7 +2813,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2764,7 +2825,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2776,7 +2837,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2788,7 +2849,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2800,7 +2861,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2812,7 +2873,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2824,7 +2885,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2836,7 +2897,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2848,7 +2909,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2860,7 +2921,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2872,7 +2933,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2884,7 +2945,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2896,7 +2957,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2908,7 +2969,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2920,7 +2981,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2932,7 +2993,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2944,7 +3005,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2956,7 +3017,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2968,7 +3029,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2980,7 +3041,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2992,7 +3053,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3004,7 +3065,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3016,7 +3077,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3028,7 +3089,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3040,7 +3101,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3052,7 +3113,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3064,7 +3125,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3076,7 +3137,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3088,7 +3149,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3100,7 +3161,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3112,7 +3173,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3124,7 +3185,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3136,7 +3197,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3148,7 +3209,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3160,7 +3221,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3172,7 +3233,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3184,7 +3245,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3196,7 +3257,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3208,7 +3269,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>

--- a/四下/影像處理/A6409001_邱郁涵_影像處理作業.xlsx
+++ b/四下/影像處理/A6409001_邱郁涵_影像處理作業.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2D250-79C2-4C34-90ED-72CB3E76BCE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11415" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="作業1" sheetId="1" r:id="rId1"/>
+    <sheet name="作業2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>題目：影像合成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,12 +389,57 @@
     <t>檔案：https://reurl.cc/j7RX8n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.ginifab.com.tw/tools/colors/rgb_to_hsv_hsl.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2020/04/29</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>題目(a)：請解釋HSV與HSI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>參考網路解釋名詞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +494,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,10 +520,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -488,9 +542,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -517,7 +573,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1474,19 +1530,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1556,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1570,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1528,7 +1584,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1598,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1554,7 +1610,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -1568,7 +1624,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1582,7 +1638,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1594,7 +1650,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -1608,7 +1664,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1622,7 +1678,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -1636,11 +1692,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1651,7 +1707,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1662,7 +1718,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1673,7 +1729,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1684,7 +1740,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1695,7 +1751,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1706,7 +1762,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1717,7 +1773,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1728,7 +1784,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1739,7 +1795,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1750,7 +1806,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1761,7 +1817,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1772,7 +1828,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1783,7 +1839,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1794,7 +1850,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1805,7 +1861,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1816,7 +1872,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1827,7 +1883,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1838,7 +1894,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1849,7 +1905,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1860,16 +1916,16 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
@@ -1883,7 +1939,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
@@ -1897,7 +1953,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
@@ -1911,7 +1967,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1923,7 +1979,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1935,7 +1991,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1947,7 +2003,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1959,7 +2015,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1971,7 +2027,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1983,7 +2039,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1995,7 +2051,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2007,7 +2063,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2019,7 +2075,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2031,7 +2087,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2043,7 +2099,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2055,7 +2111,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2067,7 +2123,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2079,7 +2135,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2091,7 +2147,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2103,7 +2159,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2115,7 +2171,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2127,12 +2183,12 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -2146,7 +2202,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2158,7 +2214,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2170,7 +2226,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2182,7 +2238,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2194,7 +2250,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2206,7 +2262,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2218,7 +2274,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2230,7 +2286,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2242,7 +2298,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2254,7 +2310,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2266,7 +2322,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2278,7 +2334,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2288,10 +2344,10 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>2</v>
@@ -2305,7 +2361,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
@@ -2319,7 +2375,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>13</v>
@@ -2333,7 +2389,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>14</v>
@@ -2347,7 +2403,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>15</v>
@@ -2361,7 +2417,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>16</v>
@@ -2375,7 +2431,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>17</v>
@@ -2389,7 +2445,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2401,7 +2457,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>18</v>
@@ -2415,7 +2471,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
@@ -2429,7 +2485,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2441,7 +2497,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2453,7 +2509,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2465,7 +2521,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2477,7 +2533,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2489,7 +2545,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2501,7 +2557,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2513,7 +2569,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2525,7 +2581,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2537,7 +2593,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2549,7 +2605,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2561,7 +2617,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2573,7 +2629,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2585,7 +2641,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2597,7 +2653,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2609,7 +2665,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2621,7 +2677,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2633,7 +2689,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2645,7 +2701,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2657,7 +2713,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2669,7 +2725,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2681,7 +2737,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2693,7 +2749,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2705,7 +2761,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2717,7 +2773,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2729,7 +2785,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2741,7 +2797,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2753,7 +2809,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2765,7 +2821,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2777,7 +2833,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2789,7 +2845,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2801,7 +2857,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2813,7 +2869,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2825,7 +2881,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2837,7 +2893,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2849,7 +2905,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2861,7 +2917,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2873,7 +2929,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2885,7 +2941,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2897,7 +2953,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2909,7 +2965,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2921,7 +2977,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2933,7 +2989,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2945,7 +3001,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2957,7 +3013,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2969,7 +3025,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2981,7 +3037,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2993,7 +3049,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3005,7 +3061,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3017,7 +3073,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3029,7 +3085,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3041,7 +3097,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3053,7 +3109,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3065,7 +3121,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3077,7 +3133,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3089,7 +3145,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3101,7 +3157,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3113,7 +3169,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3125,7 +3181,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3137,7 +3193,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3149,7 +3205,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3161,7 +3217,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3173,7 +3229,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3185,7 +3241,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3197,7 +3253,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3209,7 +3265,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3221,7 +3277,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3233,7 +3289,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3245,7 +3301,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3257,7 +3313,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3269,7 +3325,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3289,8 +3345,117 @@
     <mergeCell ref="A4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C98" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/四下/影像處理/A6409001_邱郁涵_影像處理作業.xlsx
+++ b/四下/影像處理/A6409001_邱郁涵_影像處理作業.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C227AE-9863-4791-866E-5D43810CF1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11415" activeTab="1"/>
+    <workbookView xWindow="8270" yWindow="2330" windowWidth="6960" windowHeight="5980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業1" sheetId="1" r:id="rId1"/>
@@ -390,9 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ginifab.com.tw/tools/colors/rgb_to_hsv_hsl.html</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -434,11 +432,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.ginifab.com.tw/tools/colors/rgb_to_hsv_hsl.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,6 +532,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,7 +545,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -573,7 +575,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1530,75 +1532,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1610,7 +1612,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -1624,7 +1626,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1638,7 +1640,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1650,7 +1652,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -1664,7 +1666,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1678,7 +1680,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -1692,11 +1694,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1707,7 +1709,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1718,7 +1720,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1729,7 +1731,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1740,7 +1742,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1751,7 +1753,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1762,7 +1764,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1773,7 +1775,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1784,7 +1786,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1795,7 +1797,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1806,7 +1808,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1817,7 +1819,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1828,7 +1830,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1839,7 +1841,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1850,7 +1852,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1861,7 +1863,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1872,7 +1874,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1883,7 +1885,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1894,7 +1896,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1905,7 +1907,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1916,16 +1918,16 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
@@ -1939,7 +1941,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
@@ -1953,7 +1955,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
@@ -1967,7 +1969,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1979,7 +1981,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1991,7 +1993,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2003,7 +2005,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2015,7 +2017,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2027,7 +2029,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2039,7 +2041,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2051,7 +2053,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2063,7 +2065,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2075,7 +2077,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2087,7 +2089,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2099,7 +2101,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2111,7 +2113,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2123,7 +2125,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2135,7 +2137,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2147,7 +2149,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2159,7 +2161,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2171,7 +2173,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2183,12 +2185,12 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -2202,7 +2204,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2214,7 +2216,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2226,7 +2228,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2238,7 +2240,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2250,7 +2252,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2262,7 +2264,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2274,7 +2276,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2286,7 +2288,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2298,7 +2300,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2310,7 +2312,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2322,7 +2324,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2334,7 +2336,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2344,10 +2346,10 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>2</v>
@@ -2361,7 +2363,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
@@ -2375,7 +2377,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>13</v>
@@ -2389,7 +2391,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>14</v>
@@ -2403,7 +2405,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>15</v>
@@ -2417,7 +2419,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>16</v>
@@ -2431,7 +2433,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>17</v>
@@ -2445,7 +2447,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2457,7 +2459,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>18</v>
@@ -2471,7 +2473,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
@@ -2485,7 +2487,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2497,7 +2499,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2509,7 +2511,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2521,7 +2523,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2533,7 +2535,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2545,7 +2547,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2557,7 +2559,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2569,7 +2571,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2581,7 +2583,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2593,7 +2595,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2605,7 +2607,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2617,7 +2619,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2629,7 +2631,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2641,7 +2643,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2653,7 +2655,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2665,7 +2667,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2677,7 +2679,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2689,7 +2691,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2701,7 +2703,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2713,7 +2715,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2725,7 +2727,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2737,7 +2739,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2749,7 +2751,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2761,7 +2763,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2773,7 +2775,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2785,7 +2787,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2797,7 +2799,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2809,7 +2811,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2821,7 +2823,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2833,7 +2835,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2845,7 +2847,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2857,7 +2859,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2869,7 +2871,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2881,7 +2883,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2893,7 +2895,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2905,7 +2907,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2917,7 +2919,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2929,7 +2931,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2941,7 +2943,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2953,7 +2955,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2965,7 +2967,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2977,7 +2979,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2989,7 +2991,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3001,7 +3003,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3013,7 +3015,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3025,7 +3027,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3037,7 +3039,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3049,7 +3051,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3061,7 +3063,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3073,7 +3075,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3085,7 +3087,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3097,7 +3099,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3109,7 +3111,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3121,7 +3123,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3133,7 +3135,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3145,7 +3147,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3157,7 +3159,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3169,7 +3171,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3181,7 +3183,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3193,7 +3195,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3205,7 +3207,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3217,7 +3219,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3229,7 +3231,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3241,7 +3243,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3253,7 +3255,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3265,7 +3267,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3277,7 +3279,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3289,7 +3291,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3301,7 +3303,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3313,7 +3315,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3325,7 +3327,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3353,94 +3355,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="9" t="s">
-        <v>23</v>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3454,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C98" r:id="rId1"/>
+    <hyperlink ref="C98" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
